--- a/IPL/Sunrisers Hyderabad/Rahul Tripathi.xlsx
+++ b/IPL/Sunrisers Hyderabad/Rahul Tripathi.xlsx
@@ -445,28 +445,31 @@
         <v>Rahul Tripathi</v>
       </c>
       <c r="C2" t="str">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" t="str">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E2" t="str">
         <v>2</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>160.00</v>
+        <v>225.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Gujarat Titans</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>Eden Gardens</v>
       </c>
       <c r="J2" t="str">
-        <v>April 27 2022</v>
+        <v>April 14 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,10 +480,10 @@
         <v>Rahul Tripathi</v>
       </c>
       <c r="C3" t="str">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="str">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" t="str">
         <v>1</v>
@@ -489,16 +492,19 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>111.11</v>
+        <v>100.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Punjab Kings</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>Chennai</v>
       </c>
       <c r="J3" t="str">
-        <v>May 22 2022</v>
+        <v>April 21 2023</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -509,28 +515,31 @@
         <v>Rahul Tripathi</v>
       </c>
       <c r="C4" t="str">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D4" t="str">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E4" t="str">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="str">
-        <v>172.72</v>
+        <v>125.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Mumbai Indians</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I4" t="str">
-        <v>Wankhede</v>
+        <v>Hyderabad</v>
       </c>
       <c r="J4" t="str">
-        <v>May 17 2022</v>
+        <v>May 18 2023</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -541,31 +550,31 @@
         <v>Rahul Tripathi</v>
       </c>
       <c r="C5" t="str">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D5" t="str">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E5" t="str">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>172.72</v>
+        <v>166.66</v>
       </c>
       <c r="H5" t="str">
-        <v>Mumbai Indians</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I5" t="str">
-        <v>Wankhede</v>
+        <v>Delhi</v>
       </c>
       <c r="J5" t="str">
-        <v>May 17 2022</v>
+        <v>April 29 2023</v>
       </c>
       <c r="K5" t="str">
-        <v>Sunrisers won by 3 runs</v>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -576,31 +585,31 @@
         <v>Rahul Tripathi</v>
       </c>
       <c r="C6" t="str">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D6" t="str">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>111.11</v>
+        <v>82.92</v>
       </c>
       <c r="H6" t="str">
-        <v>Punjab Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I6" t="str">
-        <v>Wankhede</v>
+        <v>Lucknow</v>
       </c>
       <c r="J6" t="str">
-        <v>May 22 2022</v>
+        <v>April 07 2023</v>
       </c>
       <c r="K6" t="str">
-        <v>Punjab Kings won by 5 wickets (with 29 balls remaining)</v>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -611,31 +620,31 @@
         <v>Rahul Tripathi</v>
       </c>
       <c r="C7" t="str">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" t="str">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>160.00</v>
+        <v>153.84</v>
       </c>
       <c r="H7" t="str">
-        <v>Gujarat Titans</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I7" t="str">
-        <v>Wankhede</v>
+        <v>Hyderabad</v>
       </c>
       <c r="J7" t="str">
-        <v>April 27 2022</v>
+        <v>May 13 2023</v>
       </c>
       <c r="K7" t="str">
-        <v>Titans won by 5 wickets (with 0 balls remaining)</v>
+        <v/>
       </c>
     </row>
   </sheetData>
